--- a/matching.xlsx
+++ b/matching.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Transcription Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transcription Analysis" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,9 +441,9 @@
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
     <col width="21" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="18" customWidth="1" min="14" max="14"/>
@@ -529,23 +529,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="B2" t="n">
-        <v>5.16</v>
+        <v>5.28</v>
       </c>
       <c r="C2" t="n">
-        <v>4.96</v>
+        <v>5.04</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hello, I am a domain engineer in the&amp;nbsp;
-Systems Management space here at Dell,&amp;nbsp;&amp;nbsp;</t>
+          <t>Hello, I am a domain engineer in
+the systems management space here at Dell.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>hello i am a domain engineer in theandnbsp systems management space here at dellandnbsp andnbsp</t>
+          <t>hello i am a domain engineer in the systems management space here at dell dot</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -563,15 +563,15 @@
         <v>5.38</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FAIR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,28 +580,28 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.16</v>
+        <v>5.28</v>
       </c>
       <c r="B3" t="n">
-        <v>9.24</v>
+        <v>9.477</v>
       </c>
       <c r="C3" t="n">
-        <v>4.08</v>
+        <v>4.197</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>and today weâll be covering the default&amp;nbsp;
-deployment of OpenManage Enterprise on&amp;nbsp;&amp;nbsp;</t>
+          <t>Today we'll be covering the default
+deployment of OpenManage Enterprise on</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>and today we ll be covering the defaultandnbsp deployment of openmanage enterprise onandnbsp andnbsp</t>
+          <t>today be covering the default deployment of openmanage enterprise on</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -619,54 +619,53 @@
         <v>5.38</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.16</v>
+        <v>-5.28</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.24</v>
+        <v>9.477</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>10.96</v>
       </c>
       <c r="C4" t="n">
-        <v>8.76</v>
+        <v>1.483000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VMware. Youâll need to first download and&amp;nbsp;
-extract the OVF from our support site.</t>
+          <t>VMware.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>vmware dot you ll need to first download andandnbsp extract the ovf from our support site dot</t>
+          <t>vmware dot</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>be covering the default deployment of openmanage enterprise on vmware dot youll need to first download and extract the ovf from our support site dot in</t>
+          <t>be covering the default deployment of openmanage enterprise on vmware dot youll</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>82.34999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
         <v>5.38</v>
@@ -675,119 +674,118 @@
         <v>11.24</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.86</v>
+        <v>-4.1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FAIR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18</v>
+        <v>10.96</v>
       </c>
       <c r="B5" t="n">
-        <v>24.28</v>
+        <v>16.571</v>
       </c>
       <c r="C5" t="n">
-        <v>6.280000000000001</v>
+        <v>5.611000000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In vCenter, we will deploy the template from the&amp;nbsp;
-extracted contents of our download. I have already&amp;nbsp;&amp;nbsp;</t>
+          <t>You'll need to first download and
+extract the OVF from our support site.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>in vcenter we will deploy the template from theandnbsp extracted contents of our download dot i have alreadyandnbsp andnbsp</t>
+          <t>youll need to first download and extract the ovf from our support site dot</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>need to first download and extract the ovf from our support site dot in vcenter we will deploy the template from the extracted contents of our download dot i have already downloaded the file and extracted dot lets get started dot and</t>
+          <t>be covering the default deployment of openmanage enterprise on vmware dot youll need to first download and extract the ovf from our support site dot in</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>84.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I5" t="n">
         <v>11.24</v>
       </c>
-      <c r="I5" t="n">
-        <v>18.12</v>
-      </c>
       <c r="J5" t="n">
-        <v>-6.76</v>
+        <v>-5.58</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FAIR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24.28</v>
+        <v>16.571</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>17.545</v>
       </c>
       <c r="C6" t="n">
-        <v>5.719999999999999</v>
+        <v>0.9740000000000002</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>downloaded the file and extracted it. Letâs&amp;nbsp;
-get started. We will select âCreate/Register&amp;nbsp;&amp;nbsp;</t>
+          <t>In vCenter,</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>downloaded the file and extracted it dot let sandnbsp get started dot we will select create slash registerandnbsp andnbsp</t>
+          <t>in vcenter</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>dot i have already downloaded the file and extracted dot lets get started dot and we will select create</t>
+          <t>need to first download and extract the ovf from our support site dot in</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>68.42</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>23.74</v>
+        <v>11.24</v>
       </c>
       <c r="I6" t="n">
-        <v>30.44</v>
+        <v>18.12</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.54</v>
+        <v>-5.33</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -795,575 +793,1072 @@
         </is>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>17.545</v>
       </c>
       <c r="B7" t="n">
-        <v>33.36</v>
+        <v>23.44</v>
       </c>
       <c r="C7" t="n">
-        <v>3.359999999999999</v>
+        <v>5.895</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>downloaded the file and extracted it. Letâs&amp;nbsp;
-get started. We will select âCreate/Register&amp;nbsp;&amp;nbsp;</t>
+          <t>we will deploy the template from
+the extracted contents of our download.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>downloaded the file and extracted it dot let sandnbsp get started dot we will select create slash registerandnbsp andnbsp</t>
+          <t>we will deploy the template from the extracted contents of our download dot</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>have already downloaded the file and extracted dot lets get started dot and we will select create a register of virtual machine deploy</t>
+          <t>need to first download and extract the ovf from our support site dot in vcenter we will deploy the template from the extracted contents of our download dot i</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>68.42</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>23.74</v>
+        <v>11.24</v>
       </c>
       <c r="I7" t="n">
-        <v>30.44</v>
+        <v>18.12</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.26</v>
+        <v>-6.31</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33.36</v>
+        <v>23.44</v>
       </c>
       <c r="B8" t="n">
-        <v>43.16</v>
+        <v>27.06</v>
       </c>
       <c r="C8" t="n">
-        <v>9.799999999999997</v>
+        <v>3.619999999999997</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>a Virtual Machine,â 'Deploy the machine from&amp;nbsp;
-an OVF', and Next'. Weâll give it a unique name,&amp;nbsp;&amp;nbsp;</t>
+          <t>I have already downloaded the file and
+extracted.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>a virtual machine deploy the machine fromandnbsp an ovf and next dot we ll give it a unique nameandnbsp andnbsp</t>
+          <t>i have already downloaded the file and extracted dot</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>we will select create a register of virtual machine deploy the machine from an ovf and next dot we will give it a unique name most commonly dell ome dot</t>
+          <t>vcenter we will deploy the template from the extracted contents of our download dot i have already downloaded the file and extracted dot lets get started dot and</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>30.44</v>
+        <v>18.12</v>
       </c>
       <c r="I8" t="n">
-        <v>35.78</v>
+        <v>23.74</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.92</v>
+        <v>-5.32</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>FAIR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.16</v>
+        <v>27.06</v>
       </c>
       <c r="B9" t="n">
-        <v>59.92</v>
+        <v>28.85</v>
       </c>
       <c r="C9" t="n">
-        <v>16.76000000000001</v>
+        <v>1.790000000000003</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>most commonly âDell OME.â Weâll select these files&amp;nbsp;
-from our extracted contents and follow the wizard.</t>
+          <t>Let's get started.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>most commonly dell ome dot we ll select these filesandnbsp from our extracted contents and follow the wizard dot</t>
+          <t>lets get started dot</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>will give it a unique name most commonly dell ome dot select these files from our extracted contents dot and follow the wizard dot leave the default</t>
+          <t>have already downloaded the file and extracted dot lets get started dot and</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>84.20999999999999</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>40.84</v>
+        <v>23.74</v>
       </c>
       <c r="I9" t="n">
-        <v>45.84</v>
+        <v>30.44</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.32</v>
+        <v>-3.32</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>FAIR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61.2</v>
+        <v>28.85</v>
       </c>
       <c r="B10" t="n">
-        <v>73.72</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>12.52</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leave the default settings, thin&amp;nbsp;
-provisioned and select âFinish.â Okay,&amp;nbsp;&amp;nbsp;</t>
+          <t>And we will select Create or
+Register a Virtual Machine,</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>leave the default settings thinandnbsp provisioned and select finish dot okayandnbsp andnbsp</t>
+          <t>and we will select create or register a virtual machine</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>follow the wizard dot leave the default settings then provisioned and select finish dot okay once completed on the recent tasks menu youre now ready to power on the</t>
+          <t>and we will select create a register of virtual machine</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H10" t="n">
-        <v>56.84</v>
+        <v>23.74</v>
       </c>
       <c r="I10" t="n">
-        <v>61.96</v>
+        <v>30.44</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.36</v>
+        <v>-5.11</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>FAIR</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73.72</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>79.95999999999999</v>
+        <v>35.378</v>
       </c>
       <c r="C11" t="n">
-        <v>6.239999999999995</v>
+        <v>5.378</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>once completed on the 'Recent Tasks' menu, youâre&amp;nbsp;
-now ready to power on the virtual machines. So,&amp;nbsp;&amp;nbsp;</t>
+          <t>And we will select Create or
+Register a Virtual Machine,</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>once completed on the recent tasks menu you reandnbsp now ready to power on the virtual machines dot soandnbsp andnbsp</t>
+          <t>and we will select create or register a virtual machine</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>once completed on the recent tasks menu youre now ready to power on the virtual machine dot go to virtual machines select the virtual</t>
+          <t>have already downloaded the file and extracted dot lets get started dot and we will select create a register of virtual machine deploy</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
-        <v>73.56</v>
+        <v>23.74</v>
       </c>
       <c r="I11" t="n">
-        <v>78.56</v>
+        <v>30.44</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.16</v>
+        <v>-6.26</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>FAIR</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79.95999999999999</v>
+        <v>35.378</v>
       </c>
       <c r="B12" t="n">
-        <v>87.88</v>
+        <v>40.002</v>
       </c>
       <c r="C12" t="n">
-        <v>7.920000000000002</v>
+        <v>4.624000000000002</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>weâll go to âVirtual Machines,â select&amp;nbsp;
-the virtual machine, and 'Power On'.</t>
+          <t>Deploy the machine from an OVF and Next.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>we ll go to virtual machines selectandnbsp the virtual machine and power on dot</t>
+          <t>deploy the machine from an ovf and next dot</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>virtual machine dot go to virtual machines select the virtual machine and power on dot all right that completes the</t>
+          <t>we will select create a register of virtual machine deploy the machine from an ovf and next dot we</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>78.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>78.56</v>
+        <v>30.44</v>
       </c>
       <c r="I12" t="n">
-        <v>83.73999999999999</v>
+        <v>35.78</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.4</v>
+        <v>-4.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>87.88</v>
+        <v>40.002</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>46.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.120000000000005</v>
+        <v>6.497999999999998</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alright, that completes the installation of&amp;nbsp;
-our default install of OpenManage Enterprise,&amp;nbsp;&amp;nbsp;</t>
+          <t>We'll give it a unique name,
+most commonly Dell OME.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>alright that completes the installation ofandnbsp our default install of openmanage enterpriseandnbsp andnbsp</t>
+          <t>give it a unique name most commonly dell ome dot</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>machine and power on dot all right that completes the installation dot and youre now ready</t>
+          <t>the machine from an ovf and next dot we will give it a unique name most commonly dell ome dot select these files from our extracted contents dot and</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>30.77</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>83.73999999999999</v>
+        <v>35.78</v>
       </c>
       <c r="I13" t="n">
-        <v>89.04000000000001</v>
+        <v>40.84</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.14</v>
+        <v>-4.22</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>90</v>
+        <v>46.5</v>
       </c>
       <c r="B14" t="n">
-        <v>93.36</v>
+        <v>51.633</v>
       </c>
       <c r="C14" t="n">
-        <v>3.359999999999999</v>
+        <v>5.133000000000003</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alright, that completes the installation of&amp;nbsp;
-our default install of OpenManage Enterprise,&amp;nbsp;&amp;nbsp;</t>
+          <t>We'll select these files from our</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>alright that completes the installation ofandnbsp our default install of openmanage enterpriseandnbsp andnbsp</t>
+          <t>select these files from our</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>dot today be covering the default deployment of openmanage enterprise on vmware dot</t>
+          <t>select these files from our extracted contents dot and</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>30.77</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>89.04000000000001</v>
+        <v>45.84</v>
       </c>
       <c r="I14" t="n">
-        <v>94.3</v>
+        <v>56.84</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.96</v>
+        <v>-0.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>93.36</v>
+        <v>51.633</v>
       </c>
       <c r="B15" t="n">
-        <v>96.92</v>
+        <v>58.19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.560000000000002</v>
+        <v>6.556999999999995</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>and youâre now ready to configure your OpenManage&amp;nbsp;&amp;nbsp;</t>
+          <t>extracted contents and follow the wizard.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>and you re now ready to configure your openmanageandnbsp andnbsp</t>
+          <t>extracted contents and follow the wizard dot</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>installation dot and youre now ready to configure your openmanage enterprise appliance dot thanks for watching and</t>
+          <t>select these files from our extracted contents dot and follow the wizard dot leave the default</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>89.04000000000001</v>
+        <v>45.84</v>
       </c>
       <c r="I15" t="n">
-        <v>94.3</v>
+        <v>56.84</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.32</v>
+        <v>-5.79</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>POOR</t>
+          <t>PERFECT</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96.92</v>
+        <v>61.23</v>
       </c>
       <c r="B16" t="n">
-        <v>118.32</v>
+        <v>64.685</v>
       </c>
       <c r="C16" t="n">
-        <v>21.39999999999999</v>
+        <v>3.455000000000005</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Enterprise appliance. Thanks for&amp;nbsp;
-watching, and have a great day.</t>
+          <t>Leave the default settings,</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>enterprise appliance dot thanks forandnbsp watching and have a great day dot</t>
+          <t>leave the default settings</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>follow the wizard dot leave the default settings then provisioned and</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="I16" t="n">
+        <v>61.96</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64.685</v>
+      </c>
+      <c r="B17" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.704999999999998</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>thin provisioned, and select Finish.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>thin provisioned and select finish dot</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>settings then provisioned and select finish dot okay</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>61.96</v>
+      </c>
+      <c r="I17" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>FAIR</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>76.194</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.963999999999999</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Okay, once completed on
+the Recent Tasks menu,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>okay once completed on the recent tasks menu</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>select finish dot okay once completed on the recent tasks menu youre now ready to power on the</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>68.28</v>
+      </c>
+      <c r="I18" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>76.194</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79.92</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.725999999999999</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>you're now ready to power
+on the virtual machines.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>youre now ready to power on the virtual machines dot</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>once completed on the recent tasks menu youre now ready to power on the virtual machine dot go to virtual machines select the virtual</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+      <c r="H19" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="I19" t="n">
+        <v>78.56</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>GOOD</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>79.92</v>
+      </c>
+      <c r="B20" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.920000000000002</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>So we'll go to Virtual Machines,
+select the virtual machine and power on.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>go to virtual machines select the virtual machine and power on dot</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>virtual machine dot go to virtual machines select the virtual machine and power on dot all right that completes the</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>78.56</v>
+      </c>
+      <c r="I20" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>88.36499999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6849999999999881</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>All right,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>all right</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>machine and power on dot all right that completes the</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>88.36499999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.635000000000005</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>that completes the installation of our
+default install of OpenManage Enterprise.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>that completes the installation of our default install of openmanage enterprise dot</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>today be covering the default deployment of openmanage enterprise on vmware dot</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>90</v>
+      </c>
+      <c r="B23" t="n">
+        <v>93.23999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.239999999999995</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>that completes the installation of our
+default install of OpenManage Enterprise.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>that completes the installation of our default install of openmanage enterprise dot</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>today be covering the default deployment of openmanage enterprise on vmware dot</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>50</v>
+      </c>
+      <c r="H23" t="n">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>POOR</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>93.23999999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.240000000000009</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>And you're now ready to configure
+your OpenManage Enterprise appliance.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>and youre now ready to configure your openmanage enterprise appliance dot</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>installation dot and youre now ready to configure your openmanage enterprise appliance dot thanks for watching and</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>98.48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>100.32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.839999999999989</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thanks for watching and have a great day.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>thanks for watching and have a great day dot</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>to configure your openmanage enterprise appliance dot thanks for watching and have a great day dot</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>91.67</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
         <v>94.3</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="J16" t="n">
-        <v>-2.62</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>GOOD</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
+      <c r="J25" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
